--- a/Martian/jre/lib/resource/excel-template/language.xlsx
+++ b/Martian/jre/lib/resource/excel-template/language.xlsx
@@ -5,16 +5,17 @@
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MS-Drive\OneDrive - UOU\WORK\Workspace\WORK\JAVA\java-workspace\CE-Air_Html_Converter\resource\excel-template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Java-workspace\Martian\jre\lib\resource\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690229B7-0CB8-4344-8B24-7470FBFA3908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3867618D-AE7E-4342-8A8F-6A8B85EEDF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="21" r:id="rId1"/>
     <sheet name="TYPE" sheetId="20" r:id="rId2"/>
+    <sheet name="VERSION" sheetId="22" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Language!$B$2:$C$50</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Language List</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,6 +415,22 @@
   </si>
   <si>
     <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -980,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F6153F-3D6E-49FB-B0B0-AB83C3A810D9}">
   <dimension ref="B2:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1394,7 +1411,7 @@
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1433,4 +1450,40 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91164E2-894E-49A6-90C5-2086ACDB7C3E}">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Martian/jre/lib/resource/excel-template/language.xlsx
+++ b/Martian/jre/lib/resource/excel-template/language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Java-workspace\Martian\jre\lib\resource\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3867618D-AE7E-4342-8A8F-6A8B85EEDF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD8985C-72BD-4AF3-83B9-C7738ECC1871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="21" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Language List</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,6 +432,37 @@
   <si>
     <t>Ver003</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FJM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAC</t>
+  </si>
+  <si>
+    <t>DVM</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>ERV</t>
+  </si>
+  <si>
+    <t>EHS</t>
+  </si>
+  <si>
+    <t>DHM</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>BIoT</t>
   </si>
 </sst>
 </file>
@@ -1408,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD000EA-B92F-45B9-B836-824B0AAC4DE9}">
-  <dimension ref="B2:B7"/>
+  <dimension ref="B2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1444,6 +1475,56 @@
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1456,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91164E2-894E-49A6-90C5-2086ACDB7C3E}">
   <dimension ref="B2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Martian/jre/lib/resource/excel-template/language.xlsx
+++ b/Martian/jre/lib/resource/excel-template/language.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Java-workspace\Martian\jre\lib\resource\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD8985C-72BD-4AF3-83B9-C7738ECC1871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C5D59A-58DB-49A1-A7DF-6168870E3067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="21" r:id="rId1"/>
     <sheet name="TYPE" sheetId="20" r:id="rId2"/>
-    <sheet name="VERSION" sheetId="22" r:id="rId3"/>
+    <sheet name="Type-lang" sheetId="23" r:id="rId3"/>
+    <sheet name="VERSION" sheetId="22" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Language!$B$2:$C$50</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="118">
   <si>
     <t>Language List</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -583,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -619,21 +620,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -700,10 +686,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="16" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="16" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F6153F-3D6E-49FB-B0B0-AB83C3A810D9}">
   <dimension ref="B2:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1441,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD000EA-B92F-45B9-B836-824B0AAC4DE9}">
   <dimension ref="B2:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1530,10 +1516,57 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D632219F-3A06-4FB7-96DA-9B9EF9389107}">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91164E2-894E-49A6-90C5-2086ACDB7C3E}">
   <dimension ref="B2:B5"/>
   <sheetViews>

--- a/Martian/jre/lib/resource/excel-template/language.xlsx
+++ b/Martian/jre/lib/resource/excel-template/language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Java-workspace\Martian\jre\lib\resource\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C5D59A-58DB-49A1-A7DF-6168870E3067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C373BA1E-8038-46F6-9FB2-88DB6BF11309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="21" r:id="rId1"/>
@@ -299,10 +299,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>IT</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -464,6 +460,10 @@
   </si>
   <si>
     <t>BIoT</t>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F6153F-3D6E-49FB-B0B0-AB83C3A810D9}">
   <dimension ref="B2:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
@@ -1186,7 +1186,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>71</v>
@@ -1213,7 +1213,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
@@ -1221,7 +1221,7 @@
         <v>16</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
@@ -1229,7 +1229,7 @@
         <v>17</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
         <v>41</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
@@ -1245,7 +1245,7 @@
         <v>18</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1253,7 +1253,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
@@ -1261,7 +1261,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
@@ -1269,7 +1269,7 @@
         <v>50</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -1277,7 +1277,7 @@
         <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
@@ -1285,7 +1285,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -1293,7 +1293,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
@@ -1301,7 +1301,7 @@
         <v>23</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
@@ -1309,7 +1309,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
@@ -1317,7 +1317,7 @@
         <v>51</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
@@ -1325,7 +1325,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
@@ -1333,7 +1333,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
@@ -1341,7 +1341,7 @@
         <v>52</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
@@ -1349,7 +1349,7 @@
         <v>27</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
@@ -1357,7 +1357,7 @@
         <v>28</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
@@ -1365,15 +1365,15 @@
         <v>29</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
@@ -1381,7 +1381,7 @@
         <v>30</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
         <v>31</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
@@ -1397,7 +1397,7 @@
         <v>32</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
         <v>33</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
@@ -1413,7 +1413,7 @@
         <v>34</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1465,52 +1465,52 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>48</v>
@@ -1578,22 +1578,22 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Martian/jre/lib/resource/excel-template/language.xlsx
+++ b/Martian/jre/lib/resource/excel-template/language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Java-workspace\Martian\jre\lib\resource\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C373BA1E-8038-46F6-9FB2-88DB6BF11309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65142E23-9104-4E59-AA8A-DD05647B4BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="21" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="145">
   <si>
     <t>Language List</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,6 +464,114 @@
   <si>
     <t>IN</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Danish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dutch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finnish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>French</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norwegian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portuguese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spanish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swedish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albanian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungarian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuanian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romanian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU-COMMON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -664,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +798,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,7 +1128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F6153F-3D6E-49FB-B0B0-AB83C3A810D9}">
   <dimension ref="B2:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -1522,41 +1636,184 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D632219F-3A06-4FB7-96DA-9B9EF9389107}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="10"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
+      <c r="B2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
+      <c r="B3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>48</v>
+      <c r="B4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>7</v>
+      <c r="B5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Martian/jre/lib/resource/excel-template/language.xlsx
+++ b/Martian/jre/lib/resource/excel-template/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Java-workspace\Martian\jre\lib\resource\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65142E23-9104-4E59-AA8A-DD05647B4BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0759DE78-831A-46B2-A47B-B35526C6ACC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="159">
   <si>
     <t>Language List</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,6 +571,62 @@
   </si>
   <si>
     <t>EU-COMMON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tur-COMMON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arabic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canadian French</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazilian Portuguese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexican Spanish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentine Spanish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,6 +860,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1636,99 +1695,165 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D632219F-3A06-4FB7-96DA-9B9EF9389107}">
-  <dimension ref="B2:D28"/>
+  <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.125" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="10"/>
+    <col min="6" max="6" width="14.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>144</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F2" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>102</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F8" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F9" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F10" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="F11" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>127</v>
       </c>
@@ -1736,22 +1861,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>131</v>
       </c>

--- a/Martian/jre/lib/resource/excel-template/language.xlsx
+++ b/Martian/jre/lib/resource/excel-template/language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Workspace\Java-workspace\Martian\jre\lib\resource\excel-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0759DE78-831A-46B2-A47B-B35526C6ACC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFA416A-EDDD-448C-85BE-A3EA7CB27362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22935" yWindow="825" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="21" r:id="rId1"/>
@@ -626,7 +626,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>US</t>
+    <t>MES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1698,7 +1698,7 @@
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
